--- a/Code/Results/Cases/Case_2_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9955453878785804</v>
+        <v>1.034462150653301</v>
       </c>
       <c r="D2">
-        <v>1.016804796898804</v>
+        <v>1.041505736932444</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.016563343883333</v>
+        <v>1.048827187618355</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041470475044268</v>
+        <v>1.033845067088311</v>
       </c>
       <c r="J2">
-        <v>1.017860156901818</v>
+        <v>1.039581263592506</v>
       </c>
       <c r="K2">
-        <v>1.028034875249896</v>
+        <v>1.044285060598727</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.027796648793939</v>
+        <v>1.051585947791</v>
       </c>
       <c r="N2">
-        <v>1.009381398693802</v>
+        <v>1.017070309472182</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001657678580488</v>
+        <v>1.035706698738866</v>
       </c>
       <c r="D3">
-        <v>1.021517521054342</v>
+        <v>1.042481051107273</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.022105371014772</v>
+        <v>1.050008122977228</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042997530255218</v>
+        <v>1.034078485836317</v>
       </c>
       <c r="J3">
-        <v>1.022103255387959</v>
+        <v>1.040467461277363</v>
       </c>
       <c r="K3">
-        <v>1.031882289340661</v>
+        <v>1.045070583984231</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.032463011389667</v>
+        <v>1.052578053233864</v>
       </c>
       <c r="N3">
-        <v>1.010843960327634</v>
+        <v>1.017370826705859</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005509561397241</v>
+        <v>1.036511427353883</v>
       </c>
       <c r="D4">
-        <v>1.024489774869809</v>
+        <v>1.04311145718692</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.025603957664452</v>
+        <v>1.05077199366129</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043947859213263</v>
+        <v>1.034227867082601</v>
       </c>
       <c r="J4">
-        <v>1.024773374382528</v>
+        <v>1.041039836076952</v>
       </c>
       <c r="K4">
-        <v>1.034301348515253</v>
+        <v>1.045577569774256</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.035402882563548</v>
+        <v>1.05321916666639</v>
       </c>
       <c r="N4">
-        <v>1.011763600910174</v>
+        <v>1.017564752689465</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007105356823603</v>
+        <v>1.036849599859392</v>
       </c>
       <c r="D5">
-        <v>1.025721625075379</v>
+        <v>1.043376316642288</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.027054767174728</v>
+        <v>1.051093061258826</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044338634730632</v>
+        <v>1.034290270839701</v>
       </c>
       <c r="J5">
-        <v>1.025878606699195</v>
+        <v>1.041280211681997</v>
       </c>
       <c r="K5">
-        <v>1.035302142202334</v>
+        <v>1.045790396577484</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.03662057456794</v>
+        <v>1.053488490043443</v>
       </c>
       <c r="N5">
-        <v>1.012144079717995</v>
+        <v>1.017646153058475</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007371950096901</v>
+        <v>1.036906372651667</v>
       </c>
       <c r="D6">
-        <v>1.025927443193993</v>
+        <v>1.043420778174416</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.027297218189388</v>
+        <v>1.051146966242459</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044403743354019</v>
+        <v>1.034300725488092</v>
       </c>
       <c r="J6">
-        <v>1.026063188030168</v>
+        <v>1.041320557147029</v>
       </c>
       <c r="K6">
-        <v>1.035469250407833</v>
+        <v>1.04582611299161</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.036823984248853</v>
+        <v>1.053533698900608</v>
       </c>
       <c r="N6">
-        <v>1.012207611133763</v>
+        <v>1.017659813156853</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005530975493405</v>
+        <v>1.036515946560035</v>
       </c>
       <c r="D7">
-        <v>1.024506303390951</v>
+        <v>1.043114996891816</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.025623420819934</v>
+        <v>1.050776284030027</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043953114744228</v>
+        <v>1.034228702480642</v>
       </c>
       <c r="J7">
-        <v>1.024788209482909</v>
+        <v>1.04104304897082</v>
       </c>
       <c r="K7">
-        <v>1.034314783858644</v>
+        <v>1.045580414793008</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.035419224008918</v>
+        <v>1.053222766165191</v>
       </c>
       <c r="N7">
-        <v>1.011768708671332</v>
+        <v>1.017565840860139</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9976331565718122</v>
+        <v>1.034882872699682</v>
       </c>
       <c r="D8">
-        <v>1.01841396372167</v>
+        <v>1.041835492046228</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.018455000306529</v>
+        <v>1.049226347977285</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04199456085032</v>
+        <v>1.033924295235742</v>
       </c>
       <c r="J8">
-        <v>1.019310239409327</v>
+        <v>1.039880977560616</v>
       </c>
       <c r="K8">
-        <v>1.029350151856946</v>
+        <v>1.044550801931867</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.029390657478324</v>
+        <v>1.051921410435243</v>
       </c>
       <c r="N8">
-        <v>1.009881377556036</v>
+        <v>1.017171980447228</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9828690164634734</v>
+        <v>1.032000642045944</v>
       </c>
       <c r="D9">
-        <v>1.007048512498073</v>
+        <v>1.039575517007541</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.005107272568316</v>
+        <v>1.046492985655604</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038239287818312</v>
+        <v>1.03337518724112</v>
       </c>
       <c r="J9">
-        <v>1.009041563086315</v>
+        <v>1.037825109389165</v>
       </c>
       <c r="K9">
-        <v>1.020028258323914</v>
+        <v>1.042726474935679</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.018118027760819</v>
+        <v>1.049621709658737</v>
       </c>
       <c r="N9">
-        <v>1.00633810112789</v>
+        <v>1.016473876964819</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9723689715234013</v>
+        <v>1.030075921333623</v>
       </c>
       <c r="D10">
-        <v>0.9989885268980213</v>
+        <v>1.038065201533079</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9956566136519588</v>
+        <v>1.044669162017402</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03550872544568</v>
+        <v>1.033000547126919</v>
       </c>
       <c r="J10">
-        <v>1.001723437595351</v>
+        <v>1.036448944187035</v>
       </c>
       <c r="K10">
-        <v>1.013376067850639</v>
+        <v>1.04150343757711</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.010104734616998</v>
+        <v>1.048084069978331</v>
       </c>
       <c r="N10">
-        <v>1.003809967816367</v>
+        <v>1.016005706450368</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9676441496550355</v>
+        <v>1.029241688876423</v>
       </c>
       <c r="D11">
-        <v>0.9953688621521355</v>
+        <v>1.037410328831817</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9914155099390165</v>
+        <v>1.043879023734325</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034266778283345</v>
+        <v>1.032836285136052</v>
       </c>
       <c r="J11">
-        <v>0.9984277915555456</v>
+        <v>1.035851699892765</v>
       </c>
       <c r="K11">
-        <v>1.010378646625665</v>
+        <v>1.040972211925587</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.006501153532615</v>
+        <v>1.04741716210829</v>
       </c>
       <c r="N11">
-        <v>1.002670911155447</v>
+        <v>1.015802319645746</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9658602230462762</v>
+        <v>1.028931691691071</v>
       </c>
       <c r="D12">
-        <v>0.9940034432857333</v>
+        <v>1.037166943482172</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9898160921178486</v>
+        <v>1.04358546704796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033795961586548</v>
+        <v>1.032774963758257</v>
       </c>
       <c r="J12">
-        <v>0.9971831678476952</v>
+        <v>1.035629650880648</v>
       </c>
       <c r="K12">
-        <v>1.009246436711517</v>
+        <v>1.040774642528489</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.005141035564028</v>
+        <v>1.047169275416257</v>
       </c>
       <c r="N12">
-        <v>1.002240672953021</v>
+        <v>1.015726672025296</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9662442268189169</v>
+        <v>1.028998192903538</v>
       </c>
       <c r="D13">
-        <v>0.9942973014012523</v>
+        <v>1.037219156671057</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9901602919205795</v>
+        <v>1.043648438896093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03389739279995</v>
+        <v>1.032788131311646</v>
       </c>
       <c r="J13">
-        <v>0.9974510947335665</v>
+        <v>1.035677290500093</v>
       </c>
       <c r="K13">
-        <v>1.009490173539719</v>
+        <v>1.040817033110453</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.005433787994829</v>
+        <v>1.047222455564382</v>
       </c>
       <c r="N13">
-        <v>1.002333291909638</v>
+        <v>1.015742903264526</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9674972928242406</v>
+        <v>1.029216067005553</v>
       </c>
       <c r="D14">
-        <v>0.9952564316899497</v>
+        <v>1.037390213317511</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9912838033821161</v>
+        <v>1.043854759569902</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034228057646975</v>
+        <v>1.032831222561428</v>
       </c>
       <c r="J14">
-        <v>0.9983253369573079</v>
+        <v>1.035833349465074</v>
       </c>
       <c r="K14">
-        <v>1.010285449765051</v>
+        <v>1.040955885858042</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.006389175303752</v>
+        <v>1.047396675144937</v>
       </c>
       <c r="N14">
-        <v>1.002635496162601</v>
+        <v>1.015796068648061</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9682654483992744</v>
+        <v>1.029350289613495</v>
       </c>
       <c r="D15">
-        <v>0.9958445666487293</v>
+        <v>1.037495588824187</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9919727904122542</v>
+        <v>1.043981871972607</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034430514653941</v>
+        <v>1.032857731782181</v>
       </c>
       <c r="J15">
-        <v>0.9988612285376363</v>
+        <v>1.035929475195289</v>
       </c>
       <c r="K15">
-        <v>1.010772910070555</v>
+        <v>1.041041404631355</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.006974913202383</v>
+        <v>1.047503995328592</v>
       </c>
       <c r="N15">
-        <v>1.002820732679112</v>
+        <v>1.015828812231138</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9726786097079955</v>
+        <v>1.030131269105331</v>
       </c>
       <c r="D16">
-        <v>0.9992259014301117</v>
+        <v>1.038108644240562</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9959348023434246</v>
+        <v>1.044721592032454</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035589848224644</v>
+        <v>1.033011405613541</v>
       </c>
       <c r="J16">
-        <v>1.001939368640855</v>
+        <v>1.036488552572619</v>
       </c>
       <c r="K16">
-        <v>1.01357242765688</v>
+        <v>1.04153865851843</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.010340950315323</v>
+        <v>1.048128307100236</v>
       </c>
       <c r="N16">
-        <v>1.003884589039675</v>
+        <v>1.016019190476807</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9753977103217196</v>
+        <v>1.030620936016587</v>
       </c>
       <c r="D17">
-        <v>1.001311246118653</v>
+        <v>1.038492956493503</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9983790472130974</v>
+        <v>1.045185487219474</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036300742168349</v>
+        <v>1.033107254451268</v>
       </c>
       <c r="J17">
-        <v>1.003835288917923</v>
+        <v>1.036838882527672</v>
       </c>
       <c r="K17">
-        <v>1.015296323436126</v>
+        <v>1.041850131769691</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.012415557421193</v>
+        <v>1.048519625405161</v>
       </c>
       <c r="N17">
-        <v>1.004539720198499</v>
+        <v>1.016138430977545</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9769666748741761</v>
+        <v>1.030906471981669</v>
       </c>
       <c r="D18">
-        <v>1.002515188822336</v>
+        <v>1.038717032990532</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9997904911833131</v>
+        <v>1.045456029983404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036709684401973</v>
+        <v>1.03316296463526</v>
       </c>
       <c r="J18">
-        <v>1.004929011179309</v>
+        <v>1.037043093410974</v>
       </c>
       <c r="K18">
-        <v>1.016290647607837</v>
+        <v>1.042031650501379</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.013612842002501</v>
+        <v>1.048747768792552</v>
       </c>
       <c r="N18">
-        <v>1.004917601965531</v>
+        <v>1.016207917741748</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9774988221502213</v>
+        <v>1.031003819165695</v>
       </c>
       <c r="D19">
-        <v>1.00292363959652</v>
+        <v>1.038793422695819</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.000269390436203</v>
+        <v>1.045548271456651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036848170341851</v>
+        <v>1.033181927002528</v>
       </c>
       <c r="J19">
-        <v>1.005299924374114</v>
+        <v>1.037112701950364</v>
       </c>
       <c r="K19">
-        <v>1.016627823728616</v>
+        <v>1.042093516893202</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.014018956998622</v>
+        <v>1.048825541885015</v>
       </c>
       <c r="N19">
-        <v>1.005045743534768</v>
+        <v>1.016231600062651</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9751077539126539</v>
+        <v>1.030568407533689</v>
       </c>
       <c r="D20">
-        <v>1.001088801248581</v>
+        <v>1.038451732370472</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9981182878692377</v>
+        <v>1.045135719755616</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036225064391364</v>
+        <v>1.03309699114112</v>
       </c>
       <c r="J20">
-        <v>1.003633139659692</v>
+        <v>1.036801308969954</v>
       </c>
       <c r="K20">
-        <v>1.015112532379528</v>
+        <v>1.041816730029853</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.012194305812632</v>
+        <v>1.048477651631198</v>
       </c>
       <c r="N20">
-        <v>1.004469873214499</v>
+        <v>1.016125644246198</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9671291127217519</v>
+        <v>1.029151912022694</v>
       </c>
       <c r="D21">
-        <v>0.9949745813557884</v>
+        <v>1.037339845180665</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9909536367126733</v>
+        <v>1.043794005064453</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034130952093028</v>
+        <v>1.032818541746537</v>
       </c>
       <c r="J21">
-        <v>0.9980684717217505</v>
+        <v>1.035787399690934</v>
       </c>
       <c r="K21">
-        <v>1.010051791432473</v>
+        <v>1.040915004059929</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.006108446221157</v>
+        <v>1.04734537645991</v>
       </c>
       <c r="N21">
-        <v>1.002546705779373</v>
+        <v>1.015780415553043</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9619440825247785</v>
+        <v>1.028260573687387</v>
       </c>
       <c r="D22">
-        <v>0.9910085002673943</v>
+        <v>1.036639967080143</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9863086159391706</v>
+        <v>1.042950043422901</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032759008505328</v>
+        <v>1.03264169211285</v>
       </c>
       <c r="J22">
-        <v>0.9944504728033982</v>
+        <v>1.035148722370329</v>
       </c>
       <c r="K22">
-        <v>1.006760209990417</v>
+        <v>1.040346614300648</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.002156270173336</v>
+        <v>1.046632500413361</v>
       </c>
       <c r="N22">
-        <v>1.001295939009037</v>
+        <v>1.015562773588567</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9647095176487871</v>
+        <v>1.028733159522064</v>
       </c>
       <c r="D23">
-        <v>0.9931230630970982</v>
+        <v>1.037011061249002</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>0.9887849497253457</v>
+        <v>1.043397479576491</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033491741449515</v>
+        <v>1.032735612139675</v>
       </c>
       <c r="J23">
-        <v>0.9963802612957247</v>
+        <v>1.035487411061484</v>
       </c>
       <c r="K23">
-        <v>1.008515993322115</v>
+        <v>1.040648065451339</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>1.004263852997864</v>
+        <v>1.047010502145111</v>
       </c>
       <c r="N23">
-        <v>1.001963109861256</v>
+        <v>1.015678205194744</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9752388252356984</v>
+        <v>1.030592143136371</v>
       </c>
       <c r="D24">
-        <v>1.001189352734896</v>
+        <v>1.038470360044005</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.998236157680242</v>
+        <v>1.045158207652219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036259277526757</v>
+        <v>1.03310162929736</v>
       </c>
       <c r="J24">
-        <v>1.003724519607014</v>
+        <v>1.03681828724702</v>
       </c>
       <c r="K24">
-        <v>1.015195614149758</v>
+        <v>1.041831823327592</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>1.012294319332368</v>
+        <v>1.048496618100308</v>
       </c>
       <c r="N24">
-        <v>1.004501447143517</v>
+        <v>1.016131422218077</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9867948161507408</v>
+        <v>1.03274632466461</v>
       </c>
       <c r="D25">
-        <v>1.010067198106385</v>
+        <v>1.040160414445131</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>1.008649722501618</v>
+        <v>1.04719989546121</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039248348126593</v>
+        <v>1.033518653014296</v>
       </c>
       <c r="J25">
-        <v>1.011774908901304</v>
+        <v>1.038357577357198</v>
       </c>
       <c r="K25">
-        <v>1.022511218379128</v>
+        <v>1.043199302946184</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>1.021115230372263</v>
+        <v>1.050217023885289</v>
       </c>
       <c r="N25">
-        <v>1.007281818723564</v>
+        <v>1.016654839071033</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034462150653301</v>
+        <v>0.9955453878785813</v>
       </c>
       <c r="D2">
-        <v>1.041505736932444</v>
+        <v>1.016804796898805</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.048827187618355</v>
+        <v>1.016563343883334</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033845067088311</v>
+        <v>1.041470475044268</v>
       </c>
       <c r="J2">
-        <v>1.039581263592506</v>
+        <v>1.017860156901819</v>
       </c>
       <c r="K2">
-        <v>1.044285060598727</v>
+        <v>1.028034875249897</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.051585947791</v>
+        <v>1.027796648793941</v>
       </c>
       <c r="N2">
-        <v>1.017070309472182</v>
+        <v>1.009381398693802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035706698738866</v>
+        <v>1.001657678580487</v>
       </c>
       <c r="D3">
-        <v>1.042481051107273</v>
+        <v>1.021517521054341</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.050008122977228</v>
+        <v>1.022105371014771</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034078485836317</v>
+        <v>1.042997530255217</v>
       </c>
       <c r="J3">
-        <v>1.040467461277363</v>
+        <v>1.022103255387958</v>
       </c>
       <c r="K3">
-        <v>1.045070583984231</v>
+        <v>1.03188228934066</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.052578053233864</v>
+        <v>1.032463011389666</v>
       </c>
       <c r="N3">
-        <v>1.017370826705859</v>
+        <v>1.010843960327634</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036511427353883</v>
+        <v>1.00550956139724</v>
       </c>
       <c r="D4">
-        <v>1.04311145718692</v>
+        <v>1.024489774869809</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.05077199366129</v>
+        <v>1.025603957664453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034227867082601</v>
+        <v>1.043947859213263</v>
       </c>
       <c r="J4">
-        <v>1.041039836076952</v>
+        <v>1.024773374382528</v>
       </c>
       <c r="K4">
-        <v>1.045577569774256</v>
+        <v>1.034301348515253</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.05321916666639</v>
+        <v>1.035402882563549</v>
       </c>
       <c r="N4">
-        <v>1.017564752689465</v>
+        <v>1.011763600910174</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036849599859392</v>
+        <v>1.007105356823602</v>
       </c>
       <c r="D5">
-        <v>1.043376316642288</v>
+        <v>1.025721625075378</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.051093061258826</v>
+        <v>1.027054767174728</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034290270839701</v>
+        <v>1.044338634730631</v>
       </c>
       <c r="J5">
-        <v>1.041280211681997</v>
+        <v>1.025878606699195</v>
       </c>
       <c r="K5">
-        <v>1.045790396577484</v>
+        <v>1.035302142202333</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.053488490043443</v>
+        <v>1.036620574567939</v>
       </c>
       <c r="N5">
-        <v>1.017646153058475</v>
+        <v>1.012144079717995</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036906372651667</v>
+        <v>1.007371950096902</v>
       </c>
       <c r="D6">
-        <v>1.043420778174416</v>
+        <v>1.025927443193994</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.051146966242459</v>
+        <v>1.027297218189388</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034300725488092</v>
+        <v>1.044403743354019</v>
       </c>
       <c r="J6">
-        <v>1.041320557147029</v>
+        <v>1.026063188030169</v>
       </c>
       <c r="K6">
-        <v>1.04582611299161</v>
+        <v>1.035469250407834</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.053533698900608</v>
+        <v>1.036823984248853</v>
       </c>
       <c r="N6">
-        <v>1.017659813156853</v>
+        <v>1.012207611133763</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036515946560035</v>
+        <v>1.005530975493406</v>
       </c>
       <c r="D7">
-        <v>1.043114996891816</v>
+        <v>1.024506303390951</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.050776284030027</v>
+        <v>1.025623420819934</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034228702480642</v>
+        <v>1.043953114744228</v>
       </c>
       <c r="J7">
-        <v>1.04104304897082</v>
+        <v>1.02478820948291</v>
       </c>
       <c r="K7">
-        <v>1.045580414793008</v>
+        <v>1.034314783858645</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.053222766165191</v>
+        <v>1.035419224008918</v>
       </c>
       <c r="N7">
-        <v>1.017565840860139</v>
+        <v>1.011768708671333</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034882872699682</v>
+        <v>0.9976331565718127</v>
       </c>
       <c r="D8">
-        <v>1.041835492046228</v>
+        <v>1.01841396372167</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.049226347977285</v>
+        <v>1.01845500030653</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033924295235742</v>
+        <v>1.041994560850321</v>
       </c>
       <c r="J8">
-        <v>1.039880977560616</v>
+        <v>1.019310239409328</v>
       </c>
       <c r="K8">
-        <v>1.044550801931867</v>
+        <v>1.029350151856947</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.051921410435243</v>
+        <v>1.029390657478325</v>
       </c>
       <c r="N8">
-        <v>1.017171980447228</v>
+        <v>1.009881377556036</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032000642045944</v>
+        <v>0.9828690164634737</v>
       </c>
       <c r="D9">
-        <v>1.039575517007541</v>
+        <v>1.007048512498073</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.046492985655604</v>
+        <v>1.005107272568317</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03337518724112</v>
+        <v>1.038239287818312</v>
       </c>
       <c r="J9">
-        <v>1.037825109389165</v>
+        <v>1.009041563086315</v>
       </c>
       <c r="K9">
-        <v>1.042726474935679</v>
+        <v>1.020028258323914</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.049621709658737</v>
+        <v>1.01811802776082</v>
       </c>
       <c r="N9">
-        <v>1.016473876964819</v>
+        <v>1.00633810112789</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030075921333623</v>
+        <v>0.9723689715234017</v>
       </c>
       <c r="D10">
-        <v>1.038065201533079</v>
+        <v>0.9989885268980215</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.044669162017402</v>
+        <v>0.9956566136519592</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033000547126919</v>
+        <v>1.03550872544568</v>
       </c>
       <c r="J10">
-        <v>1.036448944187035</v>
+        <v>1.001723437595351</v>
       </c>
       <c r="K10">
-        <v>1.04150343757711</v>
+        <v>1.01337606785064</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.048084069978331</v>
+        <v>1.010104734616999</v>
       </c>
       <c r="N10">
-        <v>1.016005706450368</v>
+        <v>1.003809967816367</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029241688876423</v>
+        <v>0.9676441496550354</v>
       </c>
       <c r="D11">
-        <v>1.037410328831817</v>
+        <v>0.995368862152135</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.043879023734325</v>
+        <v>0.9914155099390157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032836285136052</v>
+        <v>1.034266778283345</v>
       </c>
       <c r="J11">
-        <v>1.035851699892765</v>
+        <v>0.9984277915555453</v>
       </c>
       <c r="K11">
-        <v>1.040972211925587</v>
+        <v>1.010378646625665</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.04741716210829</v>
+        <v>1.006501153532614</v>
       </c>
       <c r="N11">
-        <v>1.015802319645746</v>
+        <v>1.002670911155447</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028931691691071</v>
+        <v>0.9658602230462776</v>
       </c>
       <c r="D12">
-        <v>1.037166943482172</v>
+        <v>0.9940034432857344</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.04358546704796</v>
+        <v>0.9898160921178494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032774963758257</v>
+        <v>1.033795961586549</v>
       </c>
       <c r="J12">
-        <v>1.035629650880648</v>
+        <v>0.9971831678476963</v>
       </c>
       <c r="K12">
-        <v>1.040774642528489</v>
+        <v>1.009246436711517</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.047169275416257</v>
+        <v>1.005141035564029</v>
       </c>
       <c r="N12">
-        <v>1.015726672025296</v>
+        <v>1.002240672953022</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028998192903538</v>
+        <v>0.9662442268189171</v>
       </c>
       <c r="D13">
-        <v>1.037219156671057</v>
+        <v>0.9942973014012528</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.043648438896093</v>
+        <v>0.9901602919205794</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032788131311646</v>
+        <v>1.03389739279995</v>
       </c>
       <c r="J13">
-        <v>1.035677290500093</v>
+        <v>0.9974510947335669</v>
       </c>
       <c r="K13">
-        <v>1.040817033110453</v>
+        <v>1.009490173539719</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.047222455564382</v>
+        <v>1.00543378799483</v>
       </c>
       <c r="N13">
-        <v>1.015742903264526</v>
+        <v>1.002333291909638</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029216067005553</v>
+        <v>0.9674972928242426</v>
       </c>
       <c r="D14">
-        <v>1.037390213317511</v>
+        <v>0.9952564316899518</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.043854759569902</v>
+        <v>0.9912838033821181</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032831222561428</v>
+        <v>1.034228057646975</v>
       </c>
       <c r="J14">
-        <v>1.035833349465074</v>
+        <v>0.99832533695731</v>
       </c>
       <c r="K14">
-        <v>1.040955885858042</v>
+        <v>1.010285449765053</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.047396675144937</v>
+        <v>1.006389175303754</v>
       </c>
       <c r="N14">
-        <v>1.015796068648061</v>
+        <v>1.002635496162602</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029350289613495</v>
+        <v>0.9682654483992728</v>
       </c>
       <c r="D15">
-        <v>1.037495588824187</v>
+        <v>0.9958445666487274</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.043981871972607</v>
+        <v>0.9919727904122522</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032857731782181</v>
+        <v>1.03443051465394</v>
       </c>
       <c r="J15">
-        <v>1.035929475195289</v>
+        <v>0.9988612285376345</v>
       </c>
       <c r="K15">
-        <v>1.041041404631355</v>
+        <v>1.010772910070553</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.047503995328592</v>
+        <v>1.00697491320238</v>
       </c>
       <c r="N15">
-        <v>1.015828812231138</v>
+        <v>1.002820732679112</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030131269105331</v>
+        <v>0.9726786097079958</v>
       </c>
       <c r="D16">
-        <v>1.038108644240562</v>
+        <v>0.9992259014301121</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.044721592032454</v>
+        <v>0.9959348023434251</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033011405613541</v>
+        <v>1.035589848224644</v>
       </c>
       <c r="J16">
-        <v>1.036488552572619</v>
+        <v>1.001939368640856</v>
       </c>
       <c r="K16">
-        <v>1.04153865851843</v>
+        <v>1.013572427656881</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.048128307100236</v>
+        <v>1.010340950315323</v>
       </c>
       <c r="N16">
-        <v>1.016019190476807</v>
+        <v>1.003884589039675</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030620936016587</v>
+        <v>0.9753977103217195</v>
       </c>
       <c r="D17">
-        <v>1.038492956493503</v>
+        <v>1.001311246118653</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.045185487219474</v>
+        <v>0.9983790472130976</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033107254451268</v>
+        <v>1.036300742168349</v>
       </c>
       <c r="J17">
-        <v>1.036838882527672</v>
+        <v>1.003835288917923</v>
       </c>
       <c r="K17">
-        <v>1.041850131769691</v>
+        <v>1.015296323436127</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.048519625405161</v>
+        <v>1.012415557421192</v>
       </c>
       <c r="N17">
-        <v>1.016138430977545</v>
+        <v>1.004539720198499</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030906471981669</v>
+        <v>0.9769666748741761</v>
       </c>
       <c r="D18">
-        <v>1.038717032990532</v>
+        <v>1.002515188822336</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.045456029983404</v>
+        <v>0.999790491183313</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03316296463526</v>
+        <v>1.036709684401973</v>
       </c>
       <c r="J18">
-        <v>1.037043093410974</v>
+        <v>1.004929011179309</v>
       </c>
       <c r="K18">
-        <v>1.042031650501379</v>
+        <v>1.016290647607837</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.048747768792552</v>
+        <v>1.013612842002501</v>
       </c>
       <c r="N18">
-        <v>1.016207917741748</v>
+        <v>1.004917601965531</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031003819165695</v>
+        <v>0.9774988221502209</v>
       </c>
       <c r="D19">
-        <v>1.038793422695819</v>
+        <v>1.00292363959652</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.045548271456651</v>
+        <v>1.000269390436203</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033181927002528</v>
+        <v>1.036848170341851</v>
       </c>
       <c r="J19">
-        <v>1.037112701950364</v>
+        <v>1.005299924374113</v>
       </c>
       <c r="K19">
-        <v>1.042093516893202</v>
+        <v>1.016627823728615</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.048825541885015</v>
+        <v>1.014018956998621</v>
       </c>
       <c r="N19">
-        <v>1.016231600062651</v>
+        <v>1.005045743534768</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030568407533689</v>
+        <v>0.975107753912655</v>
       </c>
       <c r="D20">
-        <v>1.038451732370472</v>
+        <v>1.001088801248582</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.045135719755616</v>
+        <v>0.998118287869239</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03309699114112</v>
+        <v>1.036225064391365</v>
       </c>
       <c r="J20">
-        <v>1.036801308969954</v>
+        <v>1.003633139659693</v>
       </c>
       <c r="K20">
-        <v>1.041816730029853</v>
+        <v>1.015112532379529</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.048477651631198</v>
+        <v>1.012194305812633</v>
       </c>
       <c r="N20">
-        <v>1.016125644246198</v>
+        <v>1.0044698732145</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029151912022694</v>
+        <v>0.9671291127217517</v>
       </c>
       <c r="D21">
-        <v>1.037339845180665</v>
+        <v>0.9949745813557884</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.043794005064453</v>
+        <v>0.9909536367126727</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032818541746537</v>
+        <v>1.034130952093028</v>
       </c>
       <c r="J21">
-        <v>1.035787399690934</v>
+        <v>0.9980684717217503</v>
       </c>
       <c r="K21">
-        <v>1.040915004059929</v>
+        <v>1.010051791432473</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.04734537645991</v>
+        <v>1.006108446221157</v>
       </c>
       <c r="N21">
-        <v>1.015780415553043</v>
+        <v>1.002546705779373</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028260573687387</v>
+        <v>0.9619440825247779</v>
       </c>
       <c r="D22">
-        <v>1.036639967080143</v>
+        <v>0.9910085002673938</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.042950043422901</v>
+        <v>0.98630861593917</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03264169211285</v>
+        <v>1.032759008505328</v>
       </c>
       <c r="J22">
-        <v>1.035148722370329</v>
+        <v>0.9944504728033977</v>
       </c>
       <c r="K22">
-        <v>1.040346614300648</v>
+        <v>1.006760209990417</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.046632500413361</v>
+        <v>1.002156270173336</v>
       </c>
       <c r="N22">
-        <v>1.015562773588567</v>
+        <v>1.001295939009037</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028733159522064</v>
+        <v>0.9647095176487855</v>
       </c>
       <c r="D23">
-        <v>1.037011061249002</v>
+        <v>0.9931230630970967</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.043397479576491</v>
+        <v>0.9887849497253439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032735612139675</v>
+        <v>1.033491741449515</v>
       </c>
       <c r="J23">
-        <v>1.035487411061484</v>
+        <v>0.9963802612957232</v>
       </c>
       <c r="K23">
-        <v>1.040648065451339</v>
+        <v>1.008515993322114</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.047010502145111</v>
+        <v>1.004263852997863</v>
       </c>
       <c r="N23">
-        <v>1.015678205194744</v>
+        <v>1.001963109861255</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030592143136371</v>
+        <v>0.9752388252356977</v>
       </c>
       <c r="D24">
-        <v>1.038470360044005</v>
+        <v>1.001189352734896</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.045158207652219</v>
+        <v>0.998236157680241</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03310162929736</v>
+        <v>1.036259277526757</v>
       </c>
       <c r="J24">
-        <v>1.03681828724702</v>
+        <v>1.003724519607013</v>
       </c>
       <c r="K24">
-        <v>1.041831823327592</v>
+        <v>1.015195614149757</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.048496618100308</v>
+        <v>1.012294319332367</v>
       </c>
       <c r="N24">
-        <v>1.016131422218077</v>
+        <v>1.004501447143517</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03274632466461</v>
+        <v>0.9867948161507414</v>
       </c>
       <c r="D25">
-        <v>1.040160414445131</v>
+        <v>1.010067198106385</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.04719989546121</v>
+        <v>1.008649722501618</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033518653014296</v>
+        <v>1.039248348126594</v>
       </c>
       <c r="J25">
-        <v>1.038357577357198</v>
+        <v>1.011774908901304</v>
       </c>
       <c r="K25">
-        <v>1.043199302946184</v>
+        <v>1.022511218379129</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.050217023885289</v>
+        <v>1.021115230372263</v>
       </c>
       <c r="N25">
-        <v>1.016654839071033</v>
+        <v>1.007281818723564</v>
       </c>
     </row>
   </sheetData>
